--- a/Back_end_python/db/discapacidades.xlsx
+++ b/Back_end_python/db/discapacidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onleonel\Escritorio\geoportal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\Documents\GitHub\Proyecto_python\Back_end_python\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E549D4C5-1776-42B9-94FF-062E111FE64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3445FE8-5CD5-41DA-AF8F-BCA1335B4227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D40FDDE0-FFB0-4579-BB60-701A6F5A9F65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D40FDDE0-FFB0-4579-BB60-701A6F5A9F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Pob. con alguna discapacidad" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Censo de Población y Vivienda El Salvador 2024</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Población con alguna limitación</t>
-  </si>
-  <si>
-    <t>Población de 3 años y más por departamento según tipo de dificultad o limitante</t>
   </si>
   <si>
     <t>* Se consideran los grados de mucha dificultad y no puede hacerlo.</t>
@@ -146,7 +143,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,9 +261,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -293,8 +287,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -612,14 +609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9102632-BD08-419E-9BBA-5CE754B3048D}">
-  <dimension ref="B1:F20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
@@ -627,334 +625,334 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:5" ht="19.5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="2:6" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="40.9" customHeight="1" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="34.5" thickTop="1" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickTop="1">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5466</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6240</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11706</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E17" si="0">D4/SUM($D$4:$D$17)</f>
+        <v>4.1590870331419477E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11929</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15923</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27852</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>9.8956852936160536E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7047</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8697</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15744</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5937695412426811E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4809</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5595</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10404</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6964925245864359E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13940</v>
+      </c>
+      <c r="C8" s="2">
+        <v>19669</v>
+      </c>
+      <c r="D8" s="2">
+        <v>33609</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11941120459325792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>29644</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45982</v>
+      </c>
+      <c r="D9" s="2">
+        <v>75626</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2686956398158149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4789</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6070</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10859</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8581518958558353E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6020</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7846</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13866</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9265249275197542E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3283</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4042</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7325</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6025382297765902E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5150</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9149</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2505968961400719E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8155</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11048</v>
+      </c>
+      <c r="D14" s="2">
+        <v>19203</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8227360582115856E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9244</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12669</v>
+      </c>
+      <c r="D15" s="2">
+        <v>21913</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>7.7855863793985555E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5544</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6699</v>
+      </c>
+      <c r="D16" s="2">
+        <v>12243</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3498806207719856E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5274</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6683</v>
+      </c>
+      <c r="D17" s="2">
+        <v>11957</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2482661588312202E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>119143</v>
+      </c>
+      <c r="C18" s="4">
+        <v>162313</v>
+      </c>
+      <c r="D18" s="4">
+        <v>281456</v>
+      </c>
+      <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5466</v>
-      </c>
-      <c r="D4" s="2">
-        <v>6240</v>
-      </c>
-      <c r="E4" s="2">
-        <v>11706</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F17" si="0">E4/SUM($E$4:$E$17)</f>
-        <v>4.1590870331419477E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>11929</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15923</v>
-      </c>
-      <c r="E5" s="2">
-        <v>27852</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>9.8956852936160536E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7047</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8697</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15744</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>5.5937695412426811E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4809</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5595</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10404</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>3.6964925245864359E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>13940</v>
-      </c>
-      <c r="D8" s="2">
-        <v>19669</v>
-      </c>
-      <c r="E8" s="2">
-        <v>33609</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.11941120459325792</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>29644</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45982</v>
-      </c>
-      <c r="E9" s="2">
-        <v>75626</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.2686956398158149</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4789</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6070</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10859</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>3.8581518958558353E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7846</v>
-      </c>
-      <c r="E11" s="2">
-        <v>13866</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>4.9265249275197542E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3283</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4042</v>
-      </c>
-      <c r="E12" s="2">
-        <v>7325</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6025382297765902E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5150</v>
-      </c>
-      <c r="E13" s="2">
-        <v>9149</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2505968961400719E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8155</v>
-      </c>
-      <c r="D14" s="2">
-        <v>11048</v>
-      </c>
-      <c r="E14" s="2">
-        <v>19203</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>6.8227360582115856E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9244</v>
-      </c>
-      <c r="D15" s="2">
-        <v>12669</v>
-      </c>
-      <c r="E15" s="2">
-        <v>21913</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>7.7855863793985555E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5544</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6699</v>
-      </c>
-      <c r="E16" s="2">
-        <v>12243</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>4.3498806207719856E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5274</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6683</v>
-      </c>
-      <c r="E17" s="2">
-        <v>11957</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>4.2482661588312202E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5">
-        <v>119143</v>
-      </c>
-      <c r="D18" s="5">
-        <v>162313</v>
-      </c>
-      <c r="E18" s="5">
-        <v>281456</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickTop="1">
+      <c r="A20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -962,14 +960,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC0B34-1C9E-4DD3-A161-F6CD189400AA}">
-  <dimension ref="B1:K19"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="6" width="12.7109375" customWidth="1"/>
@@ -979,580 +978,502 @@
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:10" ht="84" thickTop="1" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="3" spans="1:10" ht="16.5" thickTop="1">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="6">
+        <v>5795</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2275</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2392</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1996</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1924</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4224</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2241</v>
+      </c>
+      <c r="I3" s="7">
+        <v>11706</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J16" si="0">I3/SUM($I$3:$I$16)</f>
+        <v>4.1590870331419477E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15301</v>
+      </c>
       <c r="C4" s="7">
-        <v>5795</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2275</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2392</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1996</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1924</v>
-      </c>
-      <c r="H4" s="8">
-        <v>4224</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2241</v>
+        <v>5779</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5443</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4306</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3446</v>
+      </c>
+      <c r="G4" s="7">
+        <v>9269</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4775</v>
+      </c>
+      <c r="I4" s="7">
+        <v>27852</v>
       </c>
       <c r="J4" s="8">
-        <v>11706</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4:K17" si="0">J4/SUM($J$4:$J$17)</f>
-        <v>4.1590870331419477E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>9.8956852936160536E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8028</v>
       </c>
       <c r="C5" s="7">
-        <v>15301</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5779</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5443</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4306</v>
-      </c>
-      <c r="G5" s="8">
-        <v>3446</v>
-      </c>
-      <c r="H5" s="8">
-        <v>9269</v>
-      </c>
-      <c r="I5" s="8">
-        <v>4775</v>
+        <v>3133</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3156</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2815</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2553</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5265</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2898</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15744</v>
       </c>
       <c r="J5" s="8">
-        <v>27852</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>9.8956852936160536E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>5.5937695412426811E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5310</v>
       </c>
       <c r="C6" s="7">
-        <v>8028</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3133</v>
-      </c>
-      <c r="E6" s="8">
-        <v>3156</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2815</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2553</v>
-      </c>
-      <c r="H6" s="8">
-        <v>5265</v>
-      </c>
-      <c r="I6" s="8">
-        <v>2898</v>
+        <v>2098</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2416</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1777</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1628</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3605</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1960</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10404</v>
       </c>
       <c r="J6" s="8">
-        <v>15744</v>
-      </c>
-      <c r="K6" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5937695412426811E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10">
-        <v>5310</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2098</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2416</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1777</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1628</v>
-      </c>
-      <c r="H7" s="8">
-        <v>3605</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1960</v>
+        <f t="shared" si="0"/>
+        <v>3.6964925245864359E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>18641</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7363</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6551</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5291</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4455</v>
+      </c>
+      <c r="G7" s="7">
+        <v>11410</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5614</v>
+      </c>
+      <c r="I7" s="7">
+        <v>33609</v>
       </c>
       <c r="J7" s="8">
-        <v>10404</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="0"/>
-        <v>3.6964925245864359E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0.11941120459325792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>43363</v>
       </c>
       <c r="C8" s="7">
-        <v>18641</v>
-      </c>
-      <c r="D8" s="8">
-        <v>7363</v>
-      </c>
-      <c r="E8" s="8">
-        <v>6551</v>
-      </c>
-      <c r="F8" s="8">
-        <v>5291</v>
-      </c>
-      <c r="G8" s="8">
-        <v>4455</v>
-      </c>
-      <c r="H8" s="8">
-        <v>11410</v>
-      </c>
-      <c r="I8" s="8">
-        <v>5614</v>
+        <v>16771</v>
+      </c>
+      <c r="D8" s="7">
+        <v>14419</v>
+      </c>
+      <c r="E8" s="7">
+        <v>11810</v>
+      </c>
+      <c r="F8" s="7">
+        <v>9121</v>
+      </c>
+      <c r="G8" s="7">
+        <v>24310</v>
+      </c>
+      <c r="H8" s="7">
+        <v>12116</v>
+      </c>
+      <c r="I8" s="7">
+        <v>75626</v>
       </c>
       <c r="J8" s="8">
-        <v>33609</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.11941120459325792</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0.2686956398158149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5383</v>
       </c>
       <c r="C9" s="7">
-        <v>43363</v>
-      </c>
-      <c r="D9" s="8">
-        <v>16771</v>
-      </c>
-      <c r="E9" s="8">
-        <v>14419</v>
-      </c>
-      <c r="F9" s="8">
-        <v>11810</v>
-      </c>
-      <c r="G9" s="8">
-        <v>9121</v>
-      </c>
-      <c r="H9" s="8">
-        <v>24310</v>
-      </c>
-      <c r="I9" s="8">
-        <v>12116</v>
+        <v>2065</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2113</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1660</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1554</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4049</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2078</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10859</v>
       </c>
       <c r="J9" s="8">
-        <v>75626</v>
-      </c>
-      <c r="K9" s="9">
-        <f t="shared" si="0"/>
-        <v>0.2686956398158149</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>3.8581518958558353E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>7308</v>
       </c>
       <c r="C10" s="7">
-        <v>5383</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2065</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2113</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1660</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1554</v>
-      </c>
-      <c r="H10" s="8">
-        <v>4049</v>
-      </c>
-      <c r="I10" s="8">
-        <v>2078</v>
+        <v>2938</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2839</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2300</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1967</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4948</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2406</v>
+      </c>
+      <c r="I10" s="7">
+        <v>13866</v>
       </c>
       <c r="J10" s="8">
-        <v>10859</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="0"/>
-        <v>3.8581518958558353E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>4.9265249275197542E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3659</v>
       </c>
       <c r="C11" s="7">
-        <v>7308</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2938</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2839</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2300</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1967</v>
-      </c>
-      <c r="H11" s="8">
-        <v>4948</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2406</v>
+        <v>1496</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1617</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1240</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1183</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2393</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1442</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7325</v>
       </c>
       <c r="J11" s="8">
-        <v>13866</v>
-      </c>
-      <c r="K11" s="9">
-        <f t="shared" si="0"/>
-        <v>4.9265249275197542E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>2.6025382297765902E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5023</v>
       </c>
       <c r="C12" s="7">
-        <v>3659</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1496</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1617</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1240</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1183</v>
-      </c>
-      <c r="H12" s="8">
-        <v>2393</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1442</v>
+        <v>1954</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1844</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1468</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1172</v>
+      </c>
+      <c r="G12" s="7">
+        <v>3195</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1521</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9149</v>
       </c>
       <c r="J12" s="8">
-        <v>7325</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="0"/>
-        <v>2.6025382297765902E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>3.2505968961400719E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10725</v>
       </c>
       <c r="C13" s="7">
-        <v>5023</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1954</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1844</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1468</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1172</v>
-      </c>
-      <c r="H13" s="8">
-        <v>3195</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1521</v>
+        <v>3924</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3494</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2969</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2371</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6940</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3168</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19203</v>
       </c>
       <c r="J13" s="8">
-        <v>9149</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="0"/>
-        <v>3.2505968961400719E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>6.8227360582115856E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6">
+        <v>11758</v>
       </c>
       <c r="C14" s="7">
-        <v>10725</v>
-      </c>
-      <c r="D14" s="8">
-        <v>3924</v>
-      </c>
-      <c r="E14" s="8">
-        <v>3494</v>
-      </c>
-      <c r="F14" s="8">
-        <v>2969</v>
-      </c>
-      <c r="G14" s="8">
-        <v>2371</v>
-      </c>
-      <c r="H14" s="8">
-        <v>6940</v>
-      </c>
-      <c r="I14" s="8">
-        <v>3168</v>
+        <v>4593</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4692</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4044</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3285</v>
+      </c>
+      <c r="G14" s="7">
+        <v>7343</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3749</v>
+      </c>
+      <c r="I14" s="7">
+        <v>21913</v>
       </c>
       <c r="J14" s="8">
-        <v>19203</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="0"/>
-        <v>6.8227360582115856E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>7.7855863793985555E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6165</v>
       </c>
       <c r="C15" s="7">
-        <v>11758</v>
-      </c>
-      <c r="D15" s="8">
-        <v>4593</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4692</v>
-      </c>
-      <c r="F15" s="8">
-        <v>4044</v>
-      </c>
-      <c r="G15" s="8">
-        <v>3285</v>
-      </c>
-      <c r="H15" s="8">
-        <v>7343</v>
-      </c>
-      <c r="I15" s="8">
-        <v>3749</v>
+        <v>2609</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2668</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1770</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1730</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4626</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2648</v>
+      </c>
+      <c r="I15" s="7">
+        <v>12243</v>
       </c>
       <c r="J15" s="8">
-        <v>21913</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="0"/>
-        <v>7.7855863793985555E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>4.3498806207719856E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6281</v>
       </c>
       <c r="C16" s="7">
-        <v>6165</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2609</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2668</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1770</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1730</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4626</v>
-      </c>
-      <c r="I16" s="8">
-        <v>2648</v>
+        <v>2623</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2750</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2341</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2095</v>
+      </c>
+      <c r="G16" s="7">
+        <v>4016</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2332</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11957</v>
       </c>
       <c r="J16" s="8">
-        <v>12243</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="0"/>
-        <v>4.3498806207719856E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7">
-        <v>6281</v>
-      </c>
-      <c r="D17" s="8">
-        <v>2623</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2750</v>
-      </c>
-      <c r="F17" s="8">
-        <v>2341</v>
-      </c>
-      <c r="G17" s="8">
-        <v>2095</v>
-      </c>
-      <c r="H17" s="8">
-        <v>4016</v>
-      </c>
-      <c r="I17" s="8">
-        <v>2332</v>
-      </c>
-      <c r="J17" s="8">
-        <v>11957</v>
-      </c>
-      <c r="K17" s="9">
         <f t="shared" si="0"/>
         <v>4.2482661588312202E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4">
-        <v>152740</v>
-      </c>
-      <c r="D18" s="5">
-        <v>59621</v>
-      </c>
-      <c r="E18" s="5">
-        <v>56394</v>
-      </c>
-      <c r="F18" s="5">
-        <v>45787</v>
-      </c>
-      <c r="G18" s="5">
-        <v>38484</v>
-      </c>
-      <c r="H18" s="5">
-        <v>95593</v>
-      </c>
-      <c r="I18" s="5">
-        <v>48948</v>
-      </c>
-      <c r="J18" s="5">
-        <v>281456</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B19:K19"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
